--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H2">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I2">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J2">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9666250000000001</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N2">
-        <v>1.93325</v>
+        <v>3.281903</v>
       </c>
       <c r="O2">
-        <v>0.322724746715536</v>
+        <v>0.7020313842117203</v>
       </c>
       <c r="P2">
-        <v>0.2550922792114143</v>
+        <v>0.7500535931645747</v>
       </c>
       <c r="Q2">
-        <v>0.215333118</v>
+        <v>0.6213424565881667</v>
       </c>
       <c r="R2">
-        <v>1.291998708</v>
+        <v>3.728054739529</v>
       </c>
       <c r="S2">
-        <v>0.05208827913077446</v>
+        <v>0.136757165381755</v>
       </c>
       <c r="T2">
-        <v>0.04117229304197623</v>
+        <v>0.1041723219027607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.5679715</v>
+      </c>
+      <c r="H3">
+        <v>1.135943</v>
+      </c>
+      <c r="I3">
+        <v>0.1948020679094191</v>
+      </c>
+      <c r="J3">
+        <v>0.1388865047139418</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.222768</v>
-      </c>
-      <c r="H3">
-        <v>0.668304</v>
-      </c>
-      <c r="I3">
-        <v>0.1614015648347147</v>
-      </c>
-      <c r="J3">
-        <v>0.1614015648347147</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>1.093967666666667</v>
+        <v>0.1016926666666667</v>
       </c>
       <c r="N3">
-        <v>3.281903</v>
+        <v>0.305078</v>
       </c>
       <c r="O3">
-        <v>0.3652403342971534</v>
+        <v>0.06525918975440262</v>
       </c>
       <c r="P3">
-        <v>0.4330470018987601</v>
+        <v>0.06972322158682391</v>
       </c>
       <c r="Q3">
-        <v>0.243700989168</v>
+        <v>0.05775853642566666</v>
       </c>
       <c r="R3">
-        <v>2.193308902512</v>
+        <v>0.346551218554</v>
       </c>
       <c r="S3">
-        <v>0.05895036149631487</v>
+        <v>0.01271262511425081</v>
       </c>
       <c r="T3">
-        <v>0.06989446375344155</v>
+        <v>0.009683614543589627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H4">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I4">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J4">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.4403435000000001</v>
+        <v>0.2993085</v>
       </c>
       <c r="N4">
-        <v>0.8806870000000001</v>
+        <v>0.598617</v>
       </c>
       <c r="O4">
-        <v>0.1470164174373026</v>
+        <v>0.1920751105940672</v>
       </c>
       <c r="P4">
-        <v>0.1162066230967866</v>
+        <v>0.1368092938089268</v>
       </c>
       <c r="Q4">
-        <v>0.09809444080800001</v>
+        <v>0.16999869770775</v>
       </c>
       <c r="R4">
-        <v>0.588566644848</v>
+        <v>0.6799947908309999</v>
       </c>
       <c r="S4">
-        <v>0.02372867983077428</v>
+        <v>0.03741662873765467</v>
       </c>
       <c r="T4">
-        <v>0.01875593081197927</v>
+        <v>0.01900096462950455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,57 +723,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5679715</v>
+      </c>
+      <c r="H5">
+        <v>1.135943</v>
+      </c>
+      <c r="I5">
+        <v>0.1948020679094191</v>
+      </c>
+      <c r="J5">
+        <v>0.1388865047139418</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.222768</v>
-      </c>
-      <c r="H5">
-        <v>0.668304</v>
-      </c>
-      <c r="I5">
-        <v>0.1614015648347147</v>
-      </c>
-      <c r="J5">
-        <v>0.1614015648347147</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.482754</v>
+        <v>0.06332</v>
       </c>
       <c r="N5">
-        <v>1.448262</v>
+        <v>0.18996</v>
       </c>
       <c r="O5">
-        <v>0.1611759083159569</v>
+        <v>0.04063431543980989</v>
       </c>
       <c r="P5">
-        <v>0.1910981272340779</v>
+        <v>0.04341389143967467</v>
       </c>
       <c r="Q5">
-        <v>0.107542143072</v>
+        <v>0.03596395538</v>
       </c>
       <c r="R5">
-        <v>0.967879287648</v>
+        <v>0.21578373228</v>
       </c>
       <c r="S5">
-        <v>0.02601404381585195</v>
+        <v>0.007915648675758603</v>
       </c>
       <c r="T5">
-        <v>0.03084353677256359</v>
+        <v>0.006029603638086933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,55 +782,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.222768</v>
+        <v>2.235202</v>
       </c>
       <c r="H6">
-        <v>0.668304</v>
+        <v>6.705606</v>
       </c>
       <c r="I6">
-        <v>0.1614015648347147</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J6">
-        <v>0.1614015648347147</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01150933333333333</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N6">
-        <v>0.034528</v>
+        <v>3.281903</v>
       </c>
       <c r="O6">
-        <v>0.003842593234051132</v>
+        <v>0.7020313842117203</v>
       </c>
       <c r="P6">
-        <v>0.004555968558961184</v>
+        <v>0.7500535931645747</v>
       </c>
       <c r="Q6">
-        <v>0.002563911168</v>
+        <v>2.445238716468666</v>
       </c>
       <c r="R6">
-        <v>0.023075200512</v>
+        <v>22.007148448218</v>
       </c>
       <c r="S6">
-        <v>0.0006202005609991397</v>
+        <v>0.5381958242194012</v>
       </c>
       <c r="T6">
-        <v>0.0007353404547540953</v>
+        <v>0.6149415479342568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.235202</v>
+      </c>
+      <c r="H7">
+        <v>6.705606</v>
+      </c>
+      <c r="I7">
+        <v>0.7666264448044829</v>
+      </c>
+      <c r="J7">
+        <v>0.8198634784745682</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.052073</v>
-      </c>
-      <c r="H7">
-        <v>0.156219</v>
-      </c>
-      <c r="I7">
-        <v>0.03772832581716448</v>
-      </c>
-      <c r="J7">
-        <v>0.03772832581716449</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.9666250000000001</v>
+        <v>0.1016926666666667</v>
       </c>
       <c r="N7">
-        <v>1.93325</v>
+        <v>0.305078</v>
       </c>
       <c r="O7">
-        <v>0.322724746715536</v>
+        <v>0.06525918975440262</v>
       </c>
       <c r="P7">
-        <v>0.2550922792114143</v>
+        <v>0.06972322158682391</v>
       </c>
       <c r="Q7">
-        <v>0.050335063625</v>
+        <v>0.2273036519186666</v>
       </c>
       <c r="R7">
-        <v>0.30201038175</v>
+        <v>2.045732867268</v>
       </c>
       <c r="S7">
-        <v>0.01217586439334563</v>
+        <v>0.05002942063223881</v>
       </c>
       <c r="T7">
-        <v>0.009624204623531333</v>
+        <v>0.05716352298062655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H8">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I8">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J8">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.093967666666667</v>
+        <v>0.2993085</v>
       </c>
       <c r="N8">
-        <v>3.281903</v>
+        <v>0.598617</v>
       </c>
       <c r="O8">
-        <v>0.3652403342971534</v>
+        <v>0.1920751105940672</v>
       </c>
       <c r="P8">
-        <v>0.4330470018987601</v>
+        <v>0.1368092938089268</v>
       </c>
       <c r="Q8">
-        <v>0.05696617830633333</v>
+        <v>0.6690149578169998</v>
       </c>
       <c r="R8">
-        <v>0.5126956047569999</v>
+        <v>4.014089746901999</v>
       </c>
       <c r="S8">
-        <v>0.01377990633393308</v>
+        <v>0.1472498591701576</v>
       </c>
       <c r="T8">
-        <v>0.01633813838178267</v>
+        <v>0.1121649435098359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.235202</v>
+      </c>
+      <c r="H9">
+        <v>6.705606</v>
+      </c>
+      <c r="I9">
+        <v>0.7666264448044829</v>
+      </c>
+      <c r="J9">
+        <v>0.8198634784745682</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.052073</v>
-      </c>
-      <c r="H9">
-        <v>0.156219</v>
-      </c>
-      <c r="I9">
-        <v>0.03772832581716448</v>
-      </c>
-      <c r="J9">
-        <v>0.03772832581716449</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
       <c r="M9">
-        <v>0.4403435000000001</v>
+        <v>0.06332</v>
       </c>
       <c r="N9">
-        <v>0.8806870000000001</v>
+        <v>0.18996</v>
       </c>
       <c r="O9">
-        <v>0.1470164174373026</v>
+        <v>0.04063431543980989</v>
       </c>
       <c r="P9">
-        <v>0.1162066230967866</v>
+        <v>0.04341389143967467</v>
       </c>
       <c r="Q9">
-        <v>0.0229300070755</v>
+        <v>0.14153299064</v>
       </c>
       <c r="R9">
-        <v>0.137580042453</v>
+        <v>1.27379691576</v>
       </c>
       <c r="S9">
-        <v>0.005546683297546815</v>
+        <v>0.03115134078268536</v>
       </c>
       <c r="T9">
-        <v>0.004384281338307999</v>
+        <v>0.03559346404984895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.052073</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H10">
-        <v>0.156219</v>
+        <v>0.337381</v>
       </c>
       <c r="I10">
-        <v>0.03772832581716448</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J10">
-        <v>0.03772832581716449</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.482754</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N10">
-        <v>1.448262</v>
+        <v>3.281903</v>
       </c>
       <c r="O10">
-        <v>0.1611759083159569</v>
+        <v>0.7020313842117203</v>
       </c>
       <c r="P10">
-        <v>0.1910981272340779</v>
+        <v>0.7500535931645747</v>
       </c>
       <c r="Q10">
-        <v>0.025138449042</v>
+        <v>0.1230279684492222</v>
       </c>
       <c r="R10">
-        <v>0.226246041378</v>
+        <v>1.107251716043</v>
       </c>
       <c r="S10">
-        <v>0.006080897182821853</v>
+        <v>0.02707839461056403</v>
       </c>
       <c r="T10">
-        <v>0.007209812407337247</v>
+        <v>0.0309397233275572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1092,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.052073</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H11">
-        <v>0.156219</v>
+        <v>0.337381</v>
       </c>
       <c r="I11">
-        <v>0.03772832581716448</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J11">
-        <v>0.03772832581716449</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01150933333333333</v>
+        <v>0.1016926666666667</v>
       </c>
       <c r="N11">
-        <v>0.034528</v>
+        <v>0.305078</v>
       </c>
       <c r="O11">
-        <v>0.003842593234051132</v>
+        <v>0.06525918975440262</v>
       </c>
       <c r="P11">
-        <v>0.004555968558961184</v>
+        <v>0.06972322158682391</v>
       </c>
       <c r="Q11">
-        <v>0.0005993255146666665</v>
+        <v>0.01143639119088889</v>
       </c>
       <c r="R11">
-        <v>0.005393929632</v>
+        <v>0.102927520718</v>
       </c>
       <c r="S11">
-        <v>0.0001449746095171129</v>
+        <v>0.002517144007912986</v>
       </c>
       <c r="T11">
-        <v>0.0001718890662052449</v>
+        <v>0.00287608406260773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H12">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I12">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J12">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.9666250000000001</v>
+        <v>0.2993085</v>
       </c>
       <c r="N12">
-        <v>1.93325</v>
+        <v>0.598617</v>
       </c>
       <c r="O12">
-        <v>0.322724746715536</v>
+        <v>0.1920751105940672</v>
       </c>
       <c r="P12">
-        <v>0.2550922792114143</v>
+        <v>0.1368092938089268</v>
       </c>
       <c r="Q12">
-        <v>1.068476987416667</v>
+        <v>0.0336603336795</v>
       </c>
       <c r="R12">
-        <v>6.410861924500002</v>
+        <v>0.201962002077</v>
       </c>
       <c r="S12">
-        <v>0.2584606031914159</v>
+        <v>0.007408622686254898</v>
       </c>
       <c r="T12">
-        <v>0.2042957815459067</v>
+        <v>0.005643385669586306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,241 +1216,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H13">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I13">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J13">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.093967666666667</v>
+        <v>0.06332</v>
       </c>
       <c r="N13">
-        <v>3.281903</v>
+        <v>0.18996</v>
       </c>
       <c r="O13">
-        <v>0.3652403342971534</v>
+        <v>0.04063431543980989</v>
       </c>
       <c r="P13">
-        <v>0.4330470018987601</v>
+        <v>0.04341389143967467</v>
       </c>
       <c r="Q13">
-        <v>1.209237581079778</v>
+        <v>0.007120988306666667</v>
       </c>
       <c r="R13">
-        <v>10.883138229718</v>
+        <v>0.06408889476</v>
       </c>
       <c r="S13">
-        <v>0.2925100664669054</v>
+        <v>0.001567325981365916</v>
       </c>
       <c r="T13">
-        <v>0.3468143997635358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.105368666666667</v>
-      </c>
-      <c r="H14">
-        <v>3.316106</v>
-      </c>
-      <c r="I14">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="J14">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.4403435000000001</v>
-      </c>
-      <c r="N14">
-        <v>0.8806870000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.1470164174373026</v>
-      </c>
-      <c r="P14">
-        <v>0.1162066230967866</v>
-      </c>
-      <c r="Q14">
-        <v>0.4867419074703335</v>
-      </c>
-      <c r="R14">
-        <v>2.920451444822001</v>
-      </c>
-      <c r="S14">
-        <v>0.1177410543089815</v>
-      </c>
-      <c r="T14">
-        <v>0.09306641094649937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.105368666666667</v>
-      </c>
-      <c r="H15">
-        <v>3.316106</v>
-      </c>
-      <c r="I15">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="J15">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.482754</v>
-      </c>
-      <c r="N15">
-        <v>1.448262</v>
-      </c>
-      <c r="O15">
-        <v>0.1611759083159569</v>
-      </c>
-      <c r="P15">
-        <v>0.1910981272340779</v>
-      </c>
-      <c r="Q15">
-        <v>0.5336211453080001</v>
-      </c>
-      <c r="R15">
-        <v>4.802590307772</v>
-      </c>
-      <c r="S15">
-        <v>0.1290809673172831</v>
-      </c>
-      <c r="T15">
-        <v>0.1530447780541771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.105368666666667</v>
-      </c>
-      <c r="H16">
-        <v>3.316106</v>
-      </c>
-      <c r="I16">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="J16">
-        <v>0.8008701093481208</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.01150933333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.034528</v>
-      </c>
-      <c r="O16">
-        <v>0.003842593234051132</v>
-      </c>
-      <c r="P16">
-        <v>0.004555968558961184</v>
-      </c>
-      <c r="Q16">
-        <v>0.01272205644088889</v>
-      </c>
-      <c r="R16">
-        <v>0.114498507968</v>
-      </c>
-      <c r="S16">
-        <v>0.003077418063534879</v>
-      </c>
-      <c r="T16">
-        <v>0.003648739038001844</v>
+        <v>0.001790823751738783</v>
       </c>
     </row>
   </sheetData>
